--- a/Example_input_data/example_thinningtransect_input.xlsx
+++ b/Example_input_data/example_thinningtransect_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.5\Example_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.8\Example_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>10-Be conc. 1 sigma (atoms/g)</t>
   </si>
   <si>
-    <t>26-Be conc. 1 sigma (atoms/g)</t>
-  </si>
-  <si>
     <t>Sample name</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>LSDn</t>
+  </si>
+  <si>
+    <t>26-Al conc. 1 sigma (atoms/g)</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,25 +568,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -604,39 +604,39 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>-85.540800000000004</v>
@@ -699,12 +699,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>-85.540700000000001</v>
@@ -767,12 +767,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>-85.543199999999999</v>
@@ -835,12 +835,12 @@
         <v>0</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>-85.543499999999995</v>
@@ -903,12 +903,12 @@
         <v>0</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>-85.551100000000005</v>
@@ -971,12 +971,12 @@
         <v>0</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>-85.532700000000006</v>
@@ -1039,12 +1039,12 @@
         <v>0</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>-85.531499999999994</v>
@@ -1107,12 +1107,12 @@
         <v>0</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>-85.5304</v>
@@ -1175,12 +1175,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>-85.527900000000002</v>
@@ -1243,12 +1243,12 @@
         <v>0</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>-85.527699999999996</v>
@@ -1311,12 +1311,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>-85.522199999999998</v>
@@ -1379,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>-85.520300000000006</v>
@@ -1447,12 +1447,12 @@
         <v>0</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>-85.518699999999995</v>
@@ -1515,12 +1515,12 @@
         <v>0</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>-85.517600000000002</v>
@@ -1583,12 +1583,12 @@
         <v>0</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>-85.496799999999993</v>
@@ -1651,12 +1651,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>-85.496799999999993</v>
@@ -1719,12 +1719,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>-85.498699999999999</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>-85.499099999999999</v>
@@ -1855,12 +1855,12 @@
         <v>0</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>-85.499099999999999</v>
@@ -1923,12 +1923,12 @@
         <v>0</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>-85.514600000000002</v>
@@ -1991,12 +1991,12 @@
         <v>0</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>-85.489599999999996</v>
@@ -2059,12 +2059,12 @@
         <v>0</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>-85.499600000000001</v>
@@ -2127,12 +2127,12 @@
         <v>0</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>-85.499600000000001</v>
@@ -2195,12 +2195,12 @@
         <v>0</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>-85.499700000000004</v>
@@ -2263,12 +2263,12 @@
         <v>0</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>-85.486099999999993</v>
@@ -2331,12 +2331,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>-85.4863</v>
@@ -2399,12 +2399,12 @@
         <v>0</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>-85.484899999999996</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
